--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:28:27+00:00</t>
+    <t>2025-09-22T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:05:42+00:00</t>
+    <t>2025-09-24T14:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:08:52+00:00</t>
+    <t>2025-10-01T08:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Transport Professionnel</t>
+    <t>TDDUI Task Transport Professionnel</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T08:29:05+00:00</t>
+    <t>2025-10-20T13:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Transport du professionnel</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -475,7 +475,7 @@
 </t>
   </si>
   <si>
-    <t>Task Instance Identifier</t>
+    <t>Identifiant du transport du professionnel</t>
   </si>
   <si>
     <t>The business identifier for this task.</t>
@@ -491,6 +491,206 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Task.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Task.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Task.identifier.value</t>
+  </si>
+  <si>
+    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-TPPro-idTransport.</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Task.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Task.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Task.instantiatesCanonical</t>
@@ -601,9 +801,6 @@
     <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
   </si>
   <si>
@@ -617,10 +814,6 @@
   </si>
   <si>
     <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason for current status</t>
@@ -747,10 +940,6 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-readable explanation of task</t>
   </si>
   <si>
@@ -841,10 +1030,6 @@
     <t>Task.executionPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Start and end time of execution</t>
   </si>
   <si>
@@ -863,35 +1048,7 @@
     <t>Task.executionPeriod.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Task.executionPeriod.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Task.executionPeriod.start</t>
@@ -1561,9 +1718,6 @@
     <t>Distance du trajet</t>
   </si>
   <si>
-    <t>distanceTrajet</t>
-  </si>
-  <si>
     <t>Task.input:distance.id</t>
   </si>
   <si>
@@ -1598,9 +1752,6 @@
   </si>
   <si>
     <t>Durée théorique du trajet</t>
-  </si>
-  <si>
-    <t>dureeTheoriqueTrajet</t>
   </si>
   <si>
     <t>Task.input:dureeTheorique.id</t>
@@ -1980,7 +2131,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2008,7 +2159,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -2024,7 +2175,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.9453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="47.7734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="94.296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
@@ -3347,7 +3498,7 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>155</v>
@@ -3359,9 +3510,7 @@
         <v>157</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3409,7 +3558,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3421,16 +3570,16 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3441,21 +3590,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3464,21 +3613,21 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3514,40 +3663,40 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3558,10 +3707,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3572,19 +3721,19 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
@@ -3592,8 +3741,12 @@
       <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3617,13 +3770,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3641,13 +3794,13 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
@@ -3659,24 +3812,24 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3699,17 +3852,19 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3734,13 +3889,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3758,7 +3913,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3776,24 +3931,24 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM15" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3804,7 +3959,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3816,19 +3971,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3841,7 +3996,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3877,13 +4032,13 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
@@ -3895,24 +4050,24 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3920,7 +4075,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3929,24 +4084,24 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3958,7 +4113,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3970,13 +4125,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3994,10 +4149,10 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -4012,24 +4167,24 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4052,17 +4207,15 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4087,10 +4240,10 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>78</v>
@@ -4111,7 +4264,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4132,21 +4285,21 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4169,18 +4322,18 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4204,10 +4357,10 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>78</v>
@@ -4228,7 +4381,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4249,21 +4402,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4271,7 +4424,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>89</v>
@@ -4286,18 +4439,18 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4321,13 +4474,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4345,10 +4498,10 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>89</v>
@@ -4363,13 +4516,13 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4377,10 +4530,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4400,27 +4553,25 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4440,13 +4591,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4464,7 +4615,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4482,13 +4633,13 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4496,10 +4647,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4510,7 +4661,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4522,17 +4673,15 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4557,11 +4706,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4579,13 +4730,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4594,16 +4745,16 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4637,16 +4788,18 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4712,10 +4865,10 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4726,10 +4879,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4740,7 +4893,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4752,19 +4905,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4813,13 +4966,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4831,13 +4984,13 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4845,14 +4998,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4865,23 +5018,23 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4906,13 +5059,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4930,10 +5083,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -4945,16 +5098,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4962,10 +5115,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4973,7 +5126,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4988,7 +5141,7 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>259</v>
@@ -4996,10 +5149,10 @@
       <c r="M26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>261</v>
       </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5023,10 +5176,10 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -5047,7 +5200,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5062,16 +5215,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5079,10 +5232,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5090,7 +5243,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -5105,16 +5258,18 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5138,10 +5293,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5162,7 +5317,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5180,13 +5335,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5194,10 +5349,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5205,7 +5360,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5217,18 +5372,20 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5253,13 +5410,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5277,10 +5434,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5289,19 +5446,19 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5309,21 +5466,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5335,22 +5492,24 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="R29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5370,55 +5529,55 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AC29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5426,10 +5585,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5437,7 +5596,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5452,16 +5611,16 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5487,13 +5646,11 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5511,7 +5668,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5520,33 +5677,33 @@
         <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5554,7 +5711,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5569,24 +5726,20 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5639,25 +5792,25 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5669,7 +5822,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5685,18 +5838,20 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>307</v>
       </c>
@@ -5756,7 +5911,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5765,13 +5920,13 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5779,18 +5934,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5805,17 +5960,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5864,7 +6019,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5873,22 +6028,22 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5896,10 +6051,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5907,7 +6062,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5922,17 +6077,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5981,7 +6136,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5996,16 +6151,16 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6013,10 +6168,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6024,10 +6179,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6036,21 +6191,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6074,13 +6227,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6098,13 +6251,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -6116,13 +6269,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6130,14 +6283,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6153,23 +6306,19 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6217,7 +6366,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6229,19 +6378,19 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6249,21 +6398,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6272,21 +6421,21 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6322,43 +6471,43 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>165</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>351</v>
+        <v>159</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6366,10 +6515,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6377,7 +6526,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6389,19 +6538,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6427,10 +6576,10 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
@@ -6451,7 +6600,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6460,33 +6609,33 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6494,7 +6643,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6506,25 +6655,27 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6568,7 +6719,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6577,44 +6728,44 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6626,16 +6777,18 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6683,16 +6836,16 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6701,35 +6854,35 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6738,19 +6891,21 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6798,16 +6953,16 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6816,10 +6971,10 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6830,21 +6985,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6853,21 +7008,21 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6915,13 +7070,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6933,13 +7088,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6947,10 +7102,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6961,7 +7116,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6973,17 +7128,17 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7008,13 +7163,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7032,13 +7187,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -7050,13 +7205,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7064,14 +7219,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7087,19 +7242,23 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>237</v>
+        <v>389</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7147,7 +7306,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7159,19 +7318,19 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7179,21 +7338,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7202,21 +7361,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>399</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7264,31 +7423,31 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>277</v>
+        <v>403</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7296,46 +7455,44 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7359,10 +7516,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7383,42 +7540,42 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>411</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7441,18 +7598,18 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7500,7 +7657,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7518,13 +7675,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7532,10 +7689,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7546,7 +7703,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7558,20 +7715,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7619,13 +7772,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7637,24 +7790,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7677,13 +7830,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7734,7 +7887,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7752,10 +7905,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7766,14 +7919,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7792,18 +7945,18 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7839,17 +7992,19 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7867,10 +8022,10 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7881,10 +8036,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7907,16 +8062,18 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>237</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>274</v>
+        <v>442</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>275</v>
+        <v>443</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7964,7 +8121,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>276</v>
+        <v>440</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7976,7 +8133,7 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7985,7 +8142,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>277</v>
+        <v>445</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7996,21 +8153,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8022,17 +8179,15 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8081,19 +8236,19 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8102,7 +8257,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8113,14 +8268,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>397</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8133,26 +8288,24 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>161</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8200,7 +8353,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8221,7 +8374,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8232,45 +8385,45 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>432</v>
+        <v>138</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>433</v>
+        <v>144</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8295,10 +8448,10 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
@@ -8319,19 +8472,19 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8340,7 +8493,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8351,10 +8504,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8362,7 +8515,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8377,16 +8530,18 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8434,10 +8589,10 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
@@ -8455,7 +8610,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8466,16 +8621,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8494,17 +8647,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>389</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8553,13 +8708,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8568,13 +8723,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8585,10 +8740,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8599,7 +8754,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8611,13 +8766,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>275</v>
+        <v>468</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8668,19 +8823,19 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>276</v>
+        <v>465</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8689,7 +8844,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>277</v>
+        <v>469</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8700,14 +8855,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8726,18 +8881,18 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>136</v>
+        <v>472</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8773,19 +8928,17 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8797,7 +8950,7 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8806,7 +8959,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8817,46 +8970,42 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8904,19 +9053,19 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8925,7 +9074,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8936,21 +9085,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8962,20 +9111,18 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8984,7 +9131,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -8999,10 +9146,10 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -9023,19 +9170,19 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9044,7 +9191,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9055,42 +9202,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9114,11 +9265,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9136,19 +9289,19 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9157,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9168,20 +9321,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -9196,17 +9347,19 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9231,10 +9384,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9255,13 +9408,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9270,13 +9423,13 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9287,10 +9440,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9298,7 +9451,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9313,13 +9466,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>237</v>
+        <v>488</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9370,10 +9523,10 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>276</v>
+        <v>487</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>89</v>
@@ -9382,7 +9535,7 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -9391,7 +9544,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9402,21 +9555,23 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9428,18 +9583,18 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>136</v>
+        <v>493</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9487,7 +9642,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9499,16 +9654,16 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9519,46 +9674,42 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9606,19 +9757,19 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9627,7 +9778,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9638,21 +9789,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9664,20 +9815,18 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9686,7 +9835,7 @@
         <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>78</v>
@@ -9701,10 +9850,10 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9725,19 +9874,19 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9746,7 +9895,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9757,42 +9906,46 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>458</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9840,19 +9993,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9861,7 +10014,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9872,20 +10025,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>89</v>
@@ -9900,17 +10051,19 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O68" t="s" s="2">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9920,7 +10073,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -9935,10 +10088,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -9959,13 +10112,13 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
@@ -9974,13 +10127,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9991,10 +10144,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10002,7 +10155,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -10017,13 +10170,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10050,13 +10203,11 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10074,10 +10225,10 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>276</v>
+        <v>487</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>89</v>
@@ -10086,7 +10237,7 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10095,7 +10246,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10106,21 +10257,23 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D70" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10132,18 +10285,18 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>136</v>
+        <v>503</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10191,7 +10344,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10203,16 +10356,16 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10223,46 +10376,42 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10310,19 +10459,19 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10480,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10342,21 +10491,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10368,20 +10517,18 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10390,7 +10537,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10405,10 +10552,10 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -10429,19 +10576,19 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10450,7 +10597,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10461,42 +10608,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>458</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10544,19 +10695,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10565,7 +10716,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10576,20 +10727,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>89</v>
@@ -10604,17 +10753,19 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10624,7 +10775,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10639,10 +10790,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10663,13 +10814,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10678,13 +10829,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10695,10 +10846,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10706,7 +10857,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10721,13 +10872,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>237</v>
+        <v>510</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10778,10 +10929,10 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>276</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>89</v>
@@ -10790,7 +10941,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10799,7 +10950,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10810,21 +10961,23 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10836,18 +10989,18 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>136</v>
+        <v>513</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10895,7 +11048,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10907,16 +11060,16 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10927,46 +11080,42 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11014,19 +11163,19 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11035,7 +11184,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11046,21 +11195,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11072,20 +11221,18 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11094,7 +11241,7 @@
         <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>78</v>
@@ -11109,10 +11256,10 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>78</v>
@@ -11133,19 +11280,19 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11154,7 +11301,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11165,42 +11312,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11248,19 +11399,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11269,7 +11420,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11280,20 +11431,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>89</v>
@@ -11308,17 +11457,19 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O80" t="s" s="2">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11328,7 +11479,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11343,10 +11494,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11367,13 +11518,13 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
@@ -11382,13 +11533,13 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>479</v>
+        <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11399,10 +11550,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11410,7 +11561,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>89</v>
@@ -11425,13 +11576,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>237</v>
+        <v>510</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11482,10 +11633,10 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>276</v>
+        <v>487</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>89</v>
@@ -11494,7 +11645,7 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11503,7 +11654,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11514,21 +11665,23 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11540,18 +11693,18 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>136</v>
+        <v>522</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11599,7 +11752,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11611,16 +11764,16 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11631,46 +11784,42 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11718,19 +11867,19 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11739,7 +11888,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11750,21 +11899,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11776,20 +11925,18 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11798,7 +11945,7 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>78</v>
@@ -11813,10 +11960,10 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11837,19 +11984,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -11858,7 +12005,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11869,42 +12016,46 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11952,19 +12103,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -11973,7 +12124,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11984,20 +12135,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>89</v>
@@ -12012,17 +12161,19 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O86" t="s" s="2">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12032,7 +12183,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>78</v>
+        <v>527</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12047,10 +12198,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12071,13 +12222,13 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
@@ -12086,13 +12237,13 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12103,10 +12254,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12114,7 +12265,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>89</v>
@@ -12129,13 +12280,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>237</v>
+        <v>529</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12186,10 +12337,10 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>276</v>
+        <v>487</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>89</v>
@@ -12198,7 +12349,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12207,7 +12358,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12218,21 +12369,23 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -12244,18 +12397,18 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>136</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12303,7 +12456,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12315,16 +12468,16 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12335,46 +12488,42 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12422,19 +12571,19 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12443,7 +12592,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12454,21 +12603,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12480,20 +12629,18 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12502,7 +12649,7 @@
         <v>78</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>78</v>
@@ -12517,10 +12664,10 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>78</v>
@@ -12541,19 +12688,19 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12562,7 +12709,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12573,42 +12720,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>497</v>
+        <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12656,19 +12807,19 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12677,7 +12828,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12688,20 +12839,18 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>89</v>
@@ -12716,17 +12865,19 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12736,7 +12887,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>78</v>
+        <v>537</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12751,10 +12902,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12775,13 +12926,13 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
@@ -12790,13 +12941,13 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12807,10 +12958,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12818,7 +12969,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>89</v>
@@ -12833,13 +12984,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>237</v>
+        <v>529</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12890,10 +13041,10 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>276</v>
+        <v>487</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>89</v>
@@ -12902,7 +13053,7 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -12911,7 +13062,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -12922,21 +13073,23 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -12948,18 +13101,18 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>136</v>
+        <v>541</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -13007,7 +13160,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13019,16 +13172,16 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13039,46 +13192,42 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13126,19 +13275,19 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13147,7 +13296,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13158,21 +13307,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13184,20 +13333,18 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13206,7 +13353,7 @@
         <v>78</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>78</v>
@@ -13221,10 +13368,10 @@
         <v>78</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>78</v>
@@ -13245,19 +13392,19 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13266,7 +13413,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13277,42 +13424,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>508</v>
+        <v>135</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13360,19 +13511,19 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13381,7 +13532,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13392,21 +13543,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13418,17 +13569,19 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O98" t="s" s="2">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13438,7 +13591,7 @@
         <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>78</v>
@@ -13453,10 +13606,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13477,13 +13630,13 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
@@ -13498,7 +13651,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13509,10 +13662,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13520,7 +13673,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>89</v>
@@ -13535,13 +13688,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>237</v>
+        <v>548</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13592,10 +13745,10 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>276</v>
+        <v>487</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>89</v>
@@ -13604,7 +13757,7 @@
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13613,7 +13766,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13624,21 +13777,23 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="D100" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13650,18 +13805,18 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>136</v>
+        <v>551</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13709,7 +13864,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -13721,16 +13876,16 @@
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13741,46 +13896,42 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13828,19 +13979,19 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -13849,7 +14000,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -13860,21 +14011,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -13886,18 +14037,18 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>517</v>
+        <v>136</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -13921,10 +14072,10 @@
         <v>78</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>520</v>
+        <v>78</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>78</v>
@@ -13945,19 +14096,19 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>516</v>
+        <v>165</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -13966,7 +14117,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -13977,43 +14128,45 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>436</v>
+        <v>135</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O103" t="s" s="2">
-        <v>524</v>
+        <v>144</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14062,33 +14215,969 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO103" t="s" s="2">
+      <c r="AK104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO111" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:10:23+00:00</t>
+    <t>2025-10-21T07:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:40:55+00:00</t>
+    <t>2025-10-22T07:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:21:52+00:00</t>
+    <t>2025-10-22T14:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:35:45+00:00</t>
+    <t>2025-10-23T08:42:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
